--- a/simpimp-subject_log-simpkid.xlsx
+++ b/simpimp-subject_log-simpkid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15920" windowHeight="13800" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="13220" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="60">
   <si>
     <t>subid</t>
   </si>
@@ -33,9 +33,6 @@
     <t>consent-vid</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>keep_drop</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>(1- least, 6-all)</t>
-  </si>
-  <si>
     <t>Farsi</t>
   </si>
   <si>
@@ -111,12 +105,6 @@
     <t>graduate</t>
   </si>
   <si>
-    <t>dropped_trials</t>
-  </si>
-  <si>
-    <t>(how many trials were dropped?)</t>
-  </si>
-  <si>
     <t>140217-03</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>Spanish</t>
   </si>
   <si>
-    <t>Simpimp subject log - SIMPKID</t>
-  </si>
-  <si>
     <t>wrong_birth_date</t>
   </si>
   <si>
@@ -180,13 +165,40 @@
     <t>age_group</t>
   </si>
   <si>
-    <t>(1: 1-2 y)</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>reason__drop</t>
+    <t>140220-01</t>
+  </si>
+  <si>
+    <t>140220-02</t>
+  </si>
+  <si>
+    <t>140220-03</t>
+  </si>
+  <si>
+    <t>140220-04</t>
+  </si>
+  <si>
+    <t>140220-05</t>
+  </si>
+  <si>
+    <t>140220-06</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>reason_drop</t>
   </si>
 </sst>
 </file>
@@ -238,8 +250,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -251,9 +265,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -595,43 +611,133 @@
     <col min="7" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="G2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>39987</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
-        <v>31</v>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40554</v>
+      </c>
+      <c r="G3" s="3">
         <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -642,476 +748,655 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
+      <c r="K3">
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
       <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>39830</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="R3" t="s">
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40088</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1">
-        <v>39987</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1">
-        <v>40554</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41939</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40672</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>39830</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>40520</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>40025</v>
+      </c>
+      <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40919</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>39630</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>40751</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40494</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>40494</v>
+      </c>
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1">
-        <v>40088</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4">
-        <v>41939</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1">
-        <v>40672</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1">
-        <v>40520</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
         <v>12</v>
       </c>
     </row>
